--- a/Users/pbrown/New Member Project/BOM.xlsx
+++ b/Users/pbrown/New Member Project/BOM.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="70">
   <si>
     <t>Line Item</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">Phenolic Airframe tubing, 2.152" ID, 0.062" wall thickness, 36" length </t>
-  </si>
-  <si>
-    <t>Motor Reload</t>
   </si>
   <si>
     <t>Caesaroni</t>
@@ -152,21 +149,12 @@
     <t>Pro54-6G casing, and propellant</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2377-K711-18A</t>
-  </si>
-  <si>
-    <t>Pro54-6G , K711, White, 54mm, 6 grain</t>
-  </si>
-  <si>
     <t>3.0-2.1 CENTERING RING, 3/16" birch plywood</t>
   </si>
   <si>
     <t>https://www.wildmanrocketry.com/ProductDetail.aspx?product=1894</t>
   </si>
   <si>
-    <t>https://www.wildmanrocketry.com/ProductDetail.aspx?product=4754</t>
-  </si>
-  <si>
     <t>Style 120 E-Glass - 3 yd Roll</t>
   </si>
   <si>
@@ -222,13 +210,29 @@
   </si>
   <si>
     <t>K650</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Day use fee</t>
+  </si>
+  <si>
+    <t>Fishing weights</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>Amazon Purchases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
@@ -311,7 +315,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -327,6 +331,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -633,25 +638,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" customWidth="1"/>
-    <col min="8" max="8" width="69.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="69.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -706,7 +711,7 @@
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>25</v>
@@ -760,24 +765,24 @@
         <v>6.95</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -807,7 +812,7 @@
         <v>25</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>32</v>
@@ -815,195 +820,163 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
       </c>
       <c r="C6" s="8">
-        <v>152.94999999999999</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="2"/>
+        <v>43.95</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="F6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="J6" s="2"/>
       <c r="K6" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="8">
-        <v>43.95</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
+        <v>3.22</v>
+      </c>
+      <c r="D7" s="10">
+        <v>13060</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="8">
+        <v>40</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="F8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8">
         <v>10</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="D9" s="10"/>
+      <c r="F9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2">
         <v>2</v>
       </c>
-      <c r="C8" s="8">
-        <v>3.22</v>
-      </c>
-      <c r="D8" s="10">
-        <v>13060</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="C10" s="8">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10"/>
       <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3</v>
+      </c>
+      <c r="D11" s="10"/>
       <c r="F11" s="2" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>8</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="2">
-        <v>4</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C12" s="8">
+        <v>52.72</v>
+      </c>
+      <c r="D12" s="10"/>
       <c r="F12" s="2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>8</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>4</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="H14" s="2" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>36</v>
@@ -1012,19 +985,21 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>16</v>
+      </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1032,157 +1007,259 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="C16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>59</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2">
-        <v>2</v>
-      </c>
-      <c r="C17" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="8">
+        <v>0.25</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="2"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <v>4</v>
+      </c>
+      <c r="C18" s="8">
+        <v>0.25</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H18" s="2"/>
+        <v>9</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>15</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>3</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <v>16</v>
-      </c>
-      <c r="B20" s="2">
-        <v>2</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H20" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="8"/>
-      <c r="D21" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>44</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>35</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H22" t="s">
-        <v>61</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>15</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C24" s="9">
-        <f>SUM(C2:C7)</f>
-        <v>231.77999999999997</v>
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>17</v>
+      </c>
+      <c r="B25" s="2">
+        <v>1</v>
+      </c>
+      <c r="C25" s="8">
+        <v>150</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="9">
+        <f>SUMPRODUCT(C2:C25,B2:B25)</f>
+        <v>704.06000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="9">
+        <f>C28*1.1</f>
+        <v>774.46600000000012</v>
       </c>
     </row>
   </sheetData>
@@ -1191,11 +1268,10 @@
     <hyperlink ref="K4" r:id="rId2"/>
     <hyperlink ref="K3" r:id="rId3"/>
     <hyperlink ref="K5" r:id="rId4"/>
-    <hyperlink ref="K6" r:id="rId5"/>
-    <hyperlink ref="K7" r:id="rId6" location="floatingcart_a"/>
-    <hyperlink ref="K8" r:id="rId7"/>
+    <hyperlink ref="K6" r:id="rId5" location="floatingcart_a"/>
+    <hyperlink ref="K7" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>